--- a/BackTest/2019-10-26 BackTest BCH.xlsx
+++ b/BackTest/2019-10-26 BackTest BCH.xlsx
@@ -3637,9 +3637,11 @@
         <v>662.1384312900005</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>261900</v>
+      </c>
       <c r="J80" t="n">
         <v>260400</v>
       </c>
@@ -3676,9 +3678,11 @@
         <v>657.2282312900005</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>261900</v>
+      </c>
       <c r="J81" t="n">
         <v>260400</v>
       </c>
@@ -3715,9 +3719,11 @@
         <v>657.2091312900005</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>261700</v>
+      </c>
       <c r="J82" t="n">
         <v>260400</v>
       </c>
@@ -3795,9 +3801,11 @@
         <v>723.7320312900005</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>262100</v>
+      </c>
       <c r="J84" t="n">
         <v>260400</v>
       </c>
@@ -3834,9 +3842,11 @@
         <v>609.7953312900005</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>263000</v>
+      </c>
       <c r="J85" t="n">
         <v>260400</v>
       </c>
@@ -3873,9 +3883,11 @@
         <v>646.2111312900005</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>262200</v>
+      </c>
       <c r="J86" t="n">
         <v>260400</v>
       </c>
@@ -3912,9 +3924,11 @@
         <v>675.7913312900005</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>263100</v>
+      </c>
       <c r="J87" t="n">
         <v>260400</v>
       </c>
@@ -3951,9 +3965,11 @@
         <v>803.6317312900005</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>263700</v>
+      </c>
       <c r="J88" t="n">
         <v>260400</v>
       </c>
@@ -3990,9 +4006,11 @@
         <v>771.8182312900005</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>264500</v>
+      </c>
       <c r="J89" t="n">
         <v>260400</v>
       </c>
@@ -5706,7 +5724,7 @@
         <v>4297.730825820001</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="n">
@@ -5714,15 +5732,13 @@
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L133" t="n">
-        <v>1.088701996927804</v>
-      </c>
-      <c r="M133" t="n">
-        <v>1.001920122887865</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5747,11 +5763,17 @@
         <v>5401.196725260001</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5780,11 +5802,17 @@
         <v>4570.823026190001</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5813,11 +5841,17 @@
         <v>5154.935976510001</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5846,11 +5880,17 @@
         <v>4438.824576510001</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5879,11 +5919,17 @@
         <v>3718.253076510001</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5912,11 +5958,17 @@
         <v>4168.602895560001</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5945,11 +5997,17 @@
         <v>3842.271095560001</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5978,11 +6036,17 @@
         <v>3580.308495560002</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -6011,11 +6075,17 @@
         <v>3715.438195560002</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -6044,11 +6114,17 @@
         <v>3285.522595560002</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -6077,11 +6153,17 @@
         <v>3458.179195690002</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -6110,11 +6192,17 @@
         <v>3311.729195690002</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -6143,11 +6231,17 @@
         <v>3367.266695690002</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -6176,11 +6270,17 @@
         <v>3471.959295690001</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6209,11 +6309,17 @@
         <v>3436.513095690002</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6245,8 +6351,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6278,8 +6390,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6311,8 +6429,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6344,8 +6468,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6377,8 +6507,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6410,8 +6546,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6443,8 +6585,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6476,8 +6624,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6509,8 +6663,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6542,8 +6702,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6575,8 +6741,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6608,8 +6780,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6641,8 +6819,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6674,8 +6858,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6707,8 +6897,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6740,8 +6936,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6773,8 +6975,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6806,8 +7014,14 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6839,8 +7053,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6872,8 +7092,14 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6905,8 +7131,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6938,8 +7170,14 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6968,11 +7206,17 @@
         <v>3737.600900290001</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -7001,11 +7245,17 @@
         <v>3730.218200290001</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -7034,11 +7284,17 @@
         <v>3724.180800290001</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -7067,11 +7323,17 @@
         <v>3750.41250029</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7100,11 +7362,17 @@
         <v>3750.41250029</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7133,11 +7401,17 @@
         <v>3919.02890029</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7169,8 +7443,14 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7202,8 +7482,14 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7235,8 +7521,14 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7268,8 +7560,14 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7301,8 +7599,14 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7334,8 +7638,14 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7364,11 +7674,17 @@
         <v>4998.18869704</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7400,8 +7716,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7433,8 +7755,14 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7466,8 +7794,14 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7496,11 +7830,17 @@
         <v>5814.924858679999</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7529,11 +7869,17 @@
         <v>6245.45645868</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7562,11 +7908,17 @@
         <v>6713.497033199999</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7598,8 +7950,14 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7631,8 +7989,14 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7664,8 +8028,14 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7697,8 +8067,14 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7730,8 +8106,14 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7763,8 +8145,14 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7796,8 +8184,14 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7829,8 +8223,14 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7862,8 +8262,14 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7895,8 +8301,14 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7928,8 +8340,14 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7961,8 +8379,14 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7994,8 +8418,14 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -8027,8 +8457,14 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8057,11 +8493,17 @@
         <v>4186.07477888</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8090,11 +8532,17 @@
         <v>3940.14427888</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8123,11 +8571,17 @@
         <v>4058.77957888</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8156,11 +8610,17 @@
         <v>3816.41687888</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8189,11 +8649,17 @@
         <v>3533.97907888</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8222,11 +8688,17 @@
         <v>3718.30757888</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8255,11 +8727,17 @@
         <v>3202.54747888</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8288,11 +8766,17 @@
         <v>2715.05837888</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8321,11 +8805,17 @@
         <v>2238.07237888</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8354,11 +8844,17 @@
         <v>2752.45817888</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8387,11 +8883,17 @@
         <v>2453.03284131</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8420,11 +8922,17 @@
         <v>2717.57484131</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8453,11 +8961,17 @@
         <v>2806.652141309999</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8489,8 +9003,14 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8522,8 +9042,14 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8555,8 +9081,14 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8588,8 +9120,14 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8621,8 +9159,14 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8651,11 +9195,17 @@
         <v>2427.122673489999</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8687,8 +9237,14 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8720,8 +9276,14 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8753,8 +9315,14 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8786,8 +9354,14 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8819,8 +9393,14 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8852,8 +9432,14 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8885,8 +9471,14 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8918,8 +9510,14 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8951,8 +9549,14 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8984,8 +9588,14 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9017,8 +9627,14 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9050,8 +9666,14 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9083,8 +9705,14 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9116,8 +9744,14 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9149,8 +9783,14 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9182,8 +9822,14 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9215,8 +9861,14 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9248,8 +9900,14 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9281,8 +9939,14 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9314,8 +9978,14 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9347,8 +10017,14 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9380,8 +10056,14 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9413,8 +10095,14 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9446,8 +10134,14 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9479,8 +10173,14 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9512,8 +10212,14 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9545,8 +10251,14 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9578,8 +10290,14 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9611,8 +10329,14 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9644,8 +10368,14 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9677,8 +10407,14 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9710,8 +10446,14 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9743,8 +10485,14 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9776,8 +10524,14 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9809,8 +10563,14 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9842,8 +10602,14 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9875,8 +10641,14 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9908,8 +10680,14 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9941,8 +10719,14 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9974,8 +10758,14 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10007,8 +10797,14 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10040,8 +10836,14 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10073,8 +10875,14 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10106,8 +10914,14 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10139,8 +10953,14 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10172,8 +10992,14 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10205,8 +11031,14 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10238,8 +11070,14 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10271,8 +11109,14 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10304,8 +11148,14 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10337,8 +11187,14 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10370,8 +11226,14 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10403,8 +11265,14 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10436,8 +11304,14 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10469,8 +11343,14 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10502,8 +11382,14 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10535,8 +11421,14 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10568,8 +11460,14 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10601,8 +11499,14 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10634,8 +11538,14 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10667,8 +11577,14 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10700,8 +11616,14 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10733,8 +11655,14 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10766,8 +11694,14 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10799,8 +11733,14 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10832,8 +11772,14 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10865,8 +11811,14 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10898,8 +11850,14 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10931,8 +11889,14 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10964,8 +11928,14 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10997,8 +11967,14 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11030,8 +12006,14 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11063,8 +12045,14 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11096,8 +12084,14 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11129,8 +12123,14 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11162,8 +12162,14 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11195,8 +12201,14 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11228,8 +12240,14 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11261,8 +12279,14 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11294,8 +12318,14 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11327,8 +12357,14 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11360,8 +12396,14 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11393,8 +12435,14 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11426,8 +12474,14 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11459,8 +12513,14 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11492,8 +12552,14 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11525,8 +12591,14 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11558,8 +12630,14 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11591,8 +12669,14 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11624,8 +12708,14 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11657,8 +12747,14 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11690,8 +12786,14 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11723,8 +12825,14 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11756,8 +12864,14 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11789,8 +12903,14 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11822,8 +12942,14 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11855,8 +12981,14 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11888,8 +13020,14 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11921,8 +13059,14 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11954,8 +13098,14 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11987,8 +13137,14 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -12020,8 +13176,14 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12053,8 +13215,14 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12086,8 +13254,14 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12119,8 +13293,14 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12152,8 +13332,14 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12185,8 +13371,14 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12218,8 +13410,14 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12251,8 +13449,14 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12284,8 +13488,14 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12317,8 +13527,14 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12350,8 +13566,14 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12383,8 +13605,14 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12416,8 +13644,14 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12449,8 +13683,14 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12482,8 +13722,14 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12515,8 +13761,14 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12548,8 +13800,14 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12581,8 +13839,14 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12614,8 +13878,14 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12647,8 +13917,14 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12680,8 +13956,14 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12713,8 +13995,14 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12746,8 +14034,14 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12779,8 +14073,14 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12812,8 +14112,14 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12845,8 +14151,14 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12878,8 +14190,14 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12911,8 +14229,14 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12944,8 +14268,14 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12977,8 +14307,14 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -13010,8 +14346,14 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -13043,8 +14385,14 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -13076,8 +14424,14 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13109,8 +14463,14 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13142,8 +14502,14 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13175,8 +14541,14 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13208,8 +14580,14 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13241,8 +14619,14 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13274,8 +14658,14 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13307,8 +14697,14 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13340,8 +14736,14 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13373,8 +14775,14 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13406,8 +14814,14 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13439,8 +14853,14 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13472,8 +14892,14 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13505,8 +14931,14 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13538,8 +14970,14 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13571,8 +15009,14 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13604,8 +15048,14 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13637,8 +15087,14 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13670,8 +15126,14 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13703,8 +15165,14 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13736,8 +15204,14 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13769,8 +15243,14 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13802,8 +15282,14 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13835,8 +15321,14 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13868,8 +15360,14 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13901,8 +15399,14 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13934,8 +15438,14 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13967,8 +15477,14 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -14000,8 +15516,14 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -14033,8 +15555,14 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -14066,8 +15594,14 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -14099,8 +15633,14 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14132,8 +15672,14 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14165,8 +15711,14 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14198,8 +15750,14 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14231,8 +15789,14 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14264,8 +15828,14 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14297,8 +15867,14 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14330,8 +15906,14 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14363,8 +15945,14 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14396,8 +15984,14 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14429,8 +16023,14 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14462,8 +16062,14 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14495,8 +16101,14 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14528,8 +16140,14 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14561,8 +16179,14 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14594,8 +16218,14 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14627,8 +16257,14 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14660,8 +16296,14 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14693,8 +16335,14 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14726,8 +16374,14 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14759,8 +16413,14 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14792,8 +16452,14 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14825,8 +16491,14 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14858,8 +16530,14 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14891,8 +16569,14 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14924,8 +16608,14 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14957,8 +16647,14 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14990,8 +16686,14 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -15023,8 +16725,14 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -15056,8 +16764,14 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -15089,8 +16803,14 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -15122,8 +16842,14 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -15155,8 +16881,14 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -15188,8 +16920,14 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -15221,8 +16959,14 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -15254,8 +16998,14 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -15287,8 +17037,14 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -15320,8 +17076,14 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -15353,8 +17115,14 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -15386,8 +17154,14 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -15419,8 +17193,14 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15452,8 +17232,14 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15485,8 +17271,14 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -15518,8 +17310,14 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15551,8 +17349,14 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15584,8 +17388,14 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15617,8 +17427,14 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15650,8 +17466,14 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15683,8 +17505,14 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15716,8 +17544,14 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15749,8 +17583,14 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15782,8 +17622,14 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15815,8 +17661,14 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15848,8 +17700,14 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15881,8 +17739,14 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15914,8 +17778,14 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15947,8 +17817,14 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15980,8 +17856,14 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -16013,8 +17895,14 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -16046,8 +17934,14 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -16079,8 +17973,14 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -16112,8 +18012,14 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -16145,8 +18051,14 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -16178,8 +18090,14 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -16211,8 +18129,14 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -16244,8 +18168,14 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -16277,8 +18207,14 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -16310,8 +18246,14 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -16343,8 +18285,14 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -16376,8 +18324,14 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -16409,8 +18363,14 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -16442,8 +18402,14 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -16475,8 +18441,14 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -16508,8 +18480,14 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="J460" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -16541,8 +18519,14 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="J461" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -16574,8 +18558,14 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="J462" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -16607,8 +18597,14 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="J463" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -16640,8 +18636,14 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="J464" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16673,8 +18675,14 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="J465" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16706,8 +18714,14 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="J466" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16739,8 +18753,14 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16772,8 +18792,14 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16805,8 +18831,14 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16838,8 +18870,14 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16871,8 +18909,14 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16904,8 +18948,14 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16937,8 +18987,14 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16970,8 +19026,14 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -17003,8 +19065,14 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -17036,8 +19104,14 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -17069,8 +19143,14 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -17102,8 +19182,14 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -17135,8 +19221,14 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -17168,8 +19260,14 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -17201,8 +19299,14 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -17234,8 +19338,14 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -17267,8 +19377,14 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -17300,8 +19416,14 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="J484" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -17333,8 +19455,14 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -17366,8 +19494,14 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="J486" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -17399,8 +19533,14 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="J487" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -17432,8 +19572,14 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="J488" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -17465,8 +19611,14 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="J489" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -17498,8 +19650,14 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="J490" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -17531,8 +19689,14 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="J491" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -17564,8 +19728,14 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="J492" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -17597,8 +19767,14 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="J493" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -17630,8 +19806,14 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="J494" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -17663,8 +19845,14 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="J495" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -17696,8 +19884,14 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="J496" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -17729,8 +19923,14 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="J497" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -17762,8 +19962,14 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="J498" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -17795,8 +20001,14 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="J499" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -17828,8 +20040,14 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="J500" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -17861,8 +20079,14 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="J501" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -17894,8 +20118,14 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="J502" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -17927,8 +20157,14 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="J503" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17960,8 +20196,14 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="J504" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -17993,8 +20235,14 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="J505" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -18026,8 +20274,14 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="J506" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -18059,8 +20313,14 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="J507" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -18092,8 +20352,14 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="J508" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -18125,8 +20391,14 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="J509" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -18158,8 +20430,14 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="J510" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -18191,8 +20469,14 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="J511" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -18224,8 +20508,14 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="J512" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -18257,8 +20547,14 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="J513" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -18290,8 +20586,14 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="J514" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -18323,8 +20625,14 @@
         <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="J515" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -18356,8 +20664,14 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="J516" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -18389,8 +20703,14 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="J517" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -18422,8 +20742,14 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="J518" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -18455,8 +20781,14 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="J519" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -18488,8 +20820,14 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="J520" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -18521,8 +20859,14 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="J521" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -18554,8 +20898,14 @@
         <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="J522" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -18587,8 +20937,14 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="J523" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -18620,8 +20976,14 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="J524" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -18653,8 +21015,14 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="J525" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -18686,8 +21054,14 @@
         <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+      <c r="J526" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -18719,8 +21093,14 @@
         <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="J527" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -18752,8 +21132,14 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="J528" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -18785,8 +21171,14 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+      <c r="J529" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -18818,8 +21210,14 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+      <c r="J530" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -18851,8 +21249,14 @@
         <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+      <c r="J531" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -18884,8 +21288,14 @@
         <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+      <c r="J532" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -18917,8 +21327,14 @@
         <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
+      <c r="J533" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -18950,8 +21366,14 @@
         <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
+      <c r="J534" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -18983,8 +21405,14 @@
         <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
+      <c r="J535" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -19016,8 +21444,14 @@
         <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
+      <c r="J536" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -19049,8 +21483,14 @@
         <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
+      <c r="J537" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -19082,8 +21522,14 @@
         <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
+      <c r="J538" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -19115,8 +21561,14 @@
         <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
+      <c r="J539" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -19148,8 +21600,14 @@
         <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
+      <c r="J540" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -19181,8 +21639,14 @@
         <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
+      <c r="J541" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -19214,8 +21678,14 @@
         <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
+      <c r="J542" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -19247,8 +21717,14 @@
         <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
+      <c r="J543" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -19280,8 +21756,14 @@
         <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
+      <c r="J544" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -19313,8 +21795,14 @@
         <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
+      <c r="J545" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -19346,8 +21834,14 @@
         <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
-      <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
+      <c r="J546" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -19379,8 +21873,14 @@
         <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
-      <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
+      <c r="J547" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -19412,8 +21912,14 @@
         <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
-      <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
+      <c r="J548" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -19445,8 +21951,14 @@
         <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
-      <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
+      <c r="J549" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -19478,8 +21990,14 @@
         <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
+      <c r="J550" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -19511,8 +22029,14 @@
         <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
-      <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
+      <c r="J551" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -19544,8 +22068,14 @@
         <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
+      <c r="J552" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -19577,8 +22107,14 @@
         <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
+      <c r="J553" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -19610,8 +22146,14 @@
         <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
-      <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
+      <c r="J554" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -19643,8 +22185,14 @@
         <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
+      <c r="J555" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -19676,8 +22224,14 @@
         <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
+      <c r="J556" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -19709,8 +22263,14 @@
         <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
+      <c r="J557" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -19742,8 +22302,14 @@
         <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
+      <c r="J558" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -19775,8 +22341,14 @@
         <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
+      <c r="J559" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -19808,8 +22380,14 @@
         <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
-      <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
+      <c r="J560" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -19841,8 +22419,14 @@
         <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
+      <c r="J561" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -19874,8 +22458,14 @@
         <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
+      <c r="J562" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -19907,8 +22497,14 @@
         <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
+      <c r="J563" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -19940,8 +22536,14 @@
         <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
+      <c r="J564" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -19973,8 +22575,14 @@
         <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
+      <c r="J565" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -20006,8 +22614,14 @@
         <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
-      <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
+      <c r="J566" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -20039,8 +22653,14 @@
         <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
-      <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
+      <c r="J567" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -20072,8 +22692,14 @@
         <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
-      <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
+      <c r="J568" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -20105,8 +22731,14 @@
         <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
-      <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
+      <c r="J569" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -20138,8 +22770,14 @@
         <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
-      <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
+      <c r="J570" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -20171,8 +22809,14 @@
         <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
-      <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
+      <c r="J571" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -20204,8 +22848,14 @@
         <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
-      <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
+      <c r="J572" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -20237,8 +22887,14 @@
         <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
-      <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
+      <c r="J573" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -20270,8 +22926,14 @@
         <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
-      <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr"/>
+      <c r="J574" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -20303,8 +22965,14 @@
         <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
-      <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
+      <c r="J575" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -20336,8 +23004,14 @@
         <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
-      <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
+      <c r="J576" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -20369,8 +23043,14 @@
         <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
-      <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
+      <c r="J577" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -20402,8 +23082,14 @@
         <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
-      <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
+      <c r="J578" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -20435,8 +23121,14 @@
         <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
-      <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
+      <c r="J579" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -20468,8 +23160,14 @@
         <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
-      <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
+      <c r="J580" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -20501,8 +23199,14 @@
         <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
-      <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
+      <c r="J581" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -20534,8 +23238,14 @@
         <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
-      <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
+      <c r="J582" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -20567,8 +23277,14 @@
         <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
-      <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
+      <c r="J583" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -20600,8 +23316,14 @@
         <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
-      <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
+      <c r="J584" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -20633,8 +23355,14 @@
         <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
-      <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
+      <c r="J585" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -20666,8 +23394,14 @@
         <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
-      <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
+      <c r="J586" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -20699,8 +23433,14 @@
         <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
-      <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
+      <c r="J587" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -20732,8 +23472,14 @@
         <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
-      <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
+      <c r="J588" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -20765,8 +23511,14 @@
         <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
-      <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
+      <c r="J589" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -20798,8 +23550,14 @@
         <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
-      <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
+      <c r="J590" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -20831,8 +23589,14 @@
         <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
-      <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
+      <c r="J591" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -20864,8 +23628,14 @@
         <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
-      <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
+      <c r="J592" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -20897,8 +23667,14 @@
         <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
-      <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
+      <c r="J593" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -20930,8 +23706,14 @@
         <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
-      <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr"/>
+      <c r="J594" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -20963,8 +23745,14 @@
         <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
-      <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
+      <c r="J595" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -20996,8 +23784,14 @@
         <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
-      <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
+      <c r="J596" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -21029,8 +23823,14 @@
         <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
-      <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr"/>
+      <c r="J597" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -21062,8 +23862,14 @@
         <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
-      <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr"/>
+      <c r="J598" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -21095,8 +23901,14 @@
         <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
-      <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
+      <c r="J599" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -21128,8 +23940,14 @@
         <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
-      <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
+      <c r="J600" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -21161,8 +23979,14 @@
         <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
+      <c r="J601" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -21194,8 +24018,14 @@
         <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
+      <c r="J602" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -21227,8 +24057,14 @@
         <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
+      <c r="J603" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -21260,8 +24096,14 @@
         <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
-      <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
+      <c r="J604" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -21293,8 +24135,14 @@
         <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
+      <c r="J605" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -21326,8 +24174,14 @@
         <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
-      <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
+      <c r="J606" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -21359,8 +24213,14 @@
         <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
-      <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
+      <c r="J607" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -21392,8 +24252,14 @@
         <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
-      <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
+      <c r="J608" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -21425,8 +24291,14 @@
         <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
-      <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr"/>
+      <c r="J609" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -21458,8 +24330,14 @@
         <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
-      <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
+      <c r="J610" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -21491,8 +24369,14 @@
         <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
-      <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr"/>
+      <c r="J611" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -21524,8 +24408,14 @@
         <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
-      <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr"/>
+      <c r="J612" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -21557,8 +24447,14 @@
         <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
-      <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr"/>
+      <c r="J613" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -21590,8 +24486,14 @@
         <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
-      <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
+      <c r="J614" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -21623,8 +24525,14 @@
         <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
-      <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr"/>
+      <c r="J615" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -21656,8 +24564,14 @@
         <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
-      <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr"/>
+      <c r="J616" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -21689,8 +24603,14 @@
         <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
-      <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr"/>
+      <c r="J617" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -21722,8 +24642,14 @@
         <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
-      <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr"/>
+      <c r="J618" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -21755,8 +24681,14 @@
         <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
-      <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr"/>
+      <c r="J619" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -21788,8 +24720,14 @@
         <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
-      <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr"/>
+      <c r="J620" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -21821,8 +24759,14 @@
         <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
-      <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr"/>
+      <c r="J621" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -21854,8 +24798,14 @@
         <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
-      <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr"/>
+      <c r="J622" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -21887,8 +24837,14 @@
         <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
-      <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr"/>
+      <c r="J623" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -21917,15 +24873,23 @@
         <v>5829.432485060001</v>
       </c>
       <c r="H624" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I624" t="inlineStr"/>
-      <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr"/>
+      <c r="J624" t="n">
+        <v>260400</v>
+      </c>
+      <c r="K624" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L624" t="n">
-        <v>1</v>
-      </c>
-      <c r="M624" t="inlineStr"/>
+        <v>1.206213517665131</v>
+      </c>
+      <c r="M624" t="n">
+        <v>1.001920122887865</v>
+      </c>
     </row>
     <row r="625">
       <c r="A625" s="1" t="n">
@@ -21950,7 +24914,7 @@
         <v>6372.823685060001</v>
       </c>
       <c r="H625" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -21983,7 +24947,7 @@
         <v>5921.19278506</v>
       </c>
       <c r="H626" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -22016,7 +24980,7 @@
         <v>5587.347985060001</v>
       </c>
       <c r="H627" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -22049,7 +25013,7 @@
         <v>5923.33478506</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -22082,7 +25046,7 @@
         <v>5642.50745284</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -22115,7 +25079,7 @@
         <v>5768.83595284</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -22148,7 +25112,7 @@
         <v>5876.23295284</v>
       </c>
       <c r="H631" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -22181,7 +25145,7 @@
         <v>5582.047052839999</v>
       </c>
       <c r="H632" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -22214,7 +25178,7 @@
         <v>5196.758152839999</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -22247,7 +25211,7 @@
         <v>5400.622752839999</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -22346,7 +25310,7 @@
         <v>5854.223152839999</v>
       </c>
       <c r="H637" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -22379,7 +25343,7 @@
         <v>5897.195152839999</v>
       </c>
       <c r="H638" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -22412,7 +25376,7 @@
         <v>5971.718346389998</v>
       </c>
       <c r="H639" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -22445,7 +25409,7 @@
         <v>5855.552446389998</v>
       </c>
       <c r="H640" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -22478,7 +25442,7 @@
         <v>5648.826546389998</v>
       </c>
       <c r="H641" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -22511,7 +25475,7 @@
         <v>5372.092046389998</v>
       </c>
       <c r="H642" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -22544,7 +25508,7 @@
         <v>5372.092046389998</v>
       </c>
       <c r="H643" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -22577,7 +25541,7 @@
         <v>5523.763346389998</v>
       </c>
       <c r="H644" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -22610,7 +25574,7 @@
         <v>5556.449246389999</v>
       </c>
       <c r="H645" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -22643,7 +25607,7 @@
         <v>5637.136346389999</v>
       </c>
       <c r="H646" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -22676,7 +25640,7 @@
         <v>5810.872246389999</v>
       </c>
       <c r="H647" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -22709,7 +25673,7 @@
         <v>5646.534422899998</v>
       </c>
       <c r="H648" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -22742,7 +25706,7 @@
         <v>5646.534422899998</v>
       </c>
       <c r="H649" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
@@ -22775,7 +25739,7 @@
         <v>5708.603322899999</v>
       </c>
       <c r="H650" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
@@ -22808,7 +25772,7 @@
         <v>5774.204322899998</v>
       </c>
       <c r="H651" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
@@ -22841,7 +25805,7 @@
         <v>6270.918425229998</v>
       </c>
       <c r="H652" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
@@ -22874,7 +25838,7 @@
         <v>6378.030225229998</v>
       </c>
       <c r="H653" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -22907,7 +25871,7 @@
         <v>6561.455525229998</v>
       </c>
       <c r="H654" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -22940,7 +25904,7 @@
         <v>6204.824125229998</v>
       </c>
       <c r="H655" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -22973,7 +25937,7 @@
         <v>5882.889725229998</v>
       </c>
       <c r="H656" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -23006,7 +25970,7 @@
         <v>5687.687725229997</v>
       </c>
       <c r="H657" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -23039,7 +26003,7 @@
         <v>5575.939425229997</v>
       </c>
       <c r="H658" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -23072,7 +26036,7 @@
         <v>5749.773825229997</v>
       </c>
       <c r="H659" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -23105,7 +26069,7 @@
         <v>5776.897525229997</v>
       </c>
       <c r="H660" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -23138,7 +26102,7 @@
         <v>6035.295925229997</v>
       </c>
       <c r="H661" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -23171,7 +26135,7 @@
         <v>5861.743025229997</v>
       </c>
       <c r="H662" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -23204,7 +26168,7 @@
         <v>5775.789525229998</v>
       </c>
       <c r="H663" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -23237,7 +26201,7 @@
         <v>5672.041325229998</v>
       </c>
       <c r="H664" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
@@ -23270,7 +26234,7 @@
         <v>5498.205870629998</v>
       </c>
       <c r="H665" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
@@ -23303,7 +26267,7 @@
         <v>5225.187283479998</v>
       </c>
       <c r="H666" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
@@ -23336,7 +26300,7 @@
         <v>5245.112483479998</v>
       </c>
       <c r="H667" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -23435,7 +26399,7 @@
         <v>5914.393496329998</v>
       </c>
       <c r="H670" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -23468,7 +26432,7 @@
         <v>5533.319596329998</v>
       </c>
       <c r="H671" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -23501,7 +26465,7 @@
         <v>6038.757096329998</v>
       </c>
       <c r="H672" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
@@ -23567,7 +26531,7 @@
         <v>5688.665574999997</v>
       </c>
       <c r="H674" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
@@ -23600,7 +26564,7 @@
         <v>5723.297674999997</v>
       </c>
       <c r="H675" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
@@ -23633,7 +26597,7 @@
         <v>6059.393871799997</v>
       </c>
       <c r="H676" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
@@ -23666,7 +26630,7 @@
         <v>5864.270871799998</v>
       </c>
       <c r="H677" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -23699,7 +26663,7 @@
         <v>5338.230277449998</v>
       </c>
       <c r="H678" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -23732,7 +26696,7 @@
         <v>5467.996577449998</v>
       </c>
       <c r="H679" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
@@ -23765,7 +26729,7 @@
         <v>5467.996577449998</v>
       </c>
       <c r="H680" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -23798,7 +26762,7 @@
         <v>5265.465467329997</v>
       </c>
       <c r="H681" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -23831,7 +26795,7 @@
         <v>5386.149167329997</v>
       </c>
       <c r="H682" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -23864,7 +26828,7 @@
         <v>5490.298923829997</v>
       </c>
       <c r="H683" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -23897,7 +26861,7 @@
         <v>5562.814723829997</v>
       </c>
       <c r="H684" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
@@ -23930,7 +26894,7 @@
         <v>5467.278948469997</v>
       </c>
       <c r="H685" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
@@ -23963,7 +26927,7 @@
         <v>5614.580148469997</v>
       </c>
       <c r="H686" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
@@ -23996,7 +26960,7 @@
         <v>5801.104848469997</v>
       </c>
       <c r="H687" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
@@ -24029,7 +26993,7 @@
         <v>5980.389348469997</v>
       </c>
       <c r="H688" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
@@ -24062,7 +27026,7 @@
         <v>6659.032592499996</v>
       </c>
       <c r="H689" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
@@ -24095,7 +27059,7 @@
         <v>5840.512992499996</v>
       </c>
       <c r="H690" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
@@ -24128,7 +27092,7 @@
         <v>5520.434392499997</v>
       </c>
       <c r="H691" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
@@ -24161,7 +27125,7 @@
         <v>5222.326092499997</v>
       </c>
       <c r="H692" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
@@ -24194,7 +27158,7 @@
         <v>4654.729692499996</v>
       </c>
       <c r="H693" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
@@ -24227,7 +27191,7 @@
         <v>4930.417592499996</v>
       </c>
       <c r="H694" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
@@ -24260,7 +27224,7 @@
         <v>5284.688792499996</v>
       </c>
       <c r="H695" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
@@ -24293,7 +27257,7 @@
         <v>4926.524692499996</v>
       </c>
       <c r="H696" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
@@ -24326,7 +27290,7 @@
         <v>5037.053392499996</v>
       </c>
       <c r="H697" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
@@ -24359,7 +27323,7 @@
         <v>4746.853843369996</v>
       </c>
       <c r="H698" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
@@ -24392,7 +27356,7 @@
         <v>5153.841943369996</v>
       </c>
       <c r="H699" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
@@ -24425,7 +27389,7 @@
         <v>5286.806743369995</v>
       </c>
       <c r="H700" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
@@ -24458,7 +27422,7 @@
         <v>5032.047943369996</v>
       </c>
       <c r="H701" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
@@ -24491,7 +27455,7 @@
         <v>4924.763443369996</v>
       </c>
       <c r="H702" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
@@ -24524,7 +27488,7 @@
         <v>4924.763443369996</v>
       </c>
       <c r="H703" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
@@ -24557,7 +27521,7 @@
         <v>5005.673143369996</v>
       </c>
       <c r="H704" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
@@ -24590,7 +27554,7 @@
         <v>5047.366415129996</v>
       </c>
       <c r="H705" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
@@ -24623,7 +27587,7 @@
         <v>5484.372215129996</v>
       </c>
       <c r="H706" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
@@ -24656,7 +27620,7 @@
         <v>5244.317415129996</v>
       </c>
       <c r="H707" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
@@ -24689,7 +27653,7 @@
         <v>5135.935646859996</v>
       </c>
       <c r="H708" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
@@ -24722,7 +27686,7 @@
         <v>4705.622546859996</v>
       </c>
       <c r="H709" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -24755,7 +27719,7 @@
         <v>4552.178541129996</v>
       </c>
       <c r="H710" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
@@ -24788,7 +27752,7 @@
         <v>4267.578341129996</v>
       </c>
       <c r="H711" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
@@ -24821,7 +27785,7 @@
         <v>4064.556129159996</v>
       </c>
       <c r="H712" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
@@ -24854,7 +27818,7 @@
         <v>4361.216029159996</v>
       </c>
       <c r="H713" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
@@ -24887,7 +27851,7 @@
         <v>4154.416929159996</v>
       </c>
       <c r="H714" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
@@ -24920,7 +27884,7 @@
         <v>4079.265529159995</v>
       </c>
       <c r="H715" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
@@ -24953,7 +27917,7 @@
         <v>3673.584129159995</v>
       </c>
       <c r="H716" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
@@ -24986,7 +27950,7 @@
         <v>4101.924329159995</v>
       </c>
       <c r="H717" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
@@ -25019,7 +27983,7 @@
         <v>4173.113929159995</v>
       </c>
       <c r="H718" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
@@ -25052,7 +28016,7 @@
         <v>3990.931729159995</v>
       </c>
       <c r="H719" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
@@ -25085,7 +28049,7 @@
         <v>3895.264516279994</v>
       </c>
       <c r="H720" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
@@ -25118,7 +28082,7 @@
         <v>4125.236716279995</v>
       </c>
       <c r="H721" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
@@ -25217,7 +28181,7 @@
         <v>4646.033215559994</v>
       </c>
       <c r="H724" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
@@ -25250,7 +28214,7 @@
         <v>4777.994615559995</v>
       </c>
       <c r="H725" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
@@ -25283,7 +28247,7 @@
         <v>4563.811315559995</v>
       </c>
       <c r="H726" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
@@ -25349,7 +28313,7 @@
         <v>4569.335415559995</v>
       </c>
       <c r="H728" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
@@ -25415,7 +28379,7 @@
         <v>4363.060615559995</v>
       </c>
       <c r="H730" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
